--- a/data/Wastewater Sources Summary.xlsx
+++ b/data/Wastewater Sources Summary.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Sheet6" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">publication!$A$1:$V$71</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">publication!$A$1:$V$69</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="243">
   <si>
     <t>EU</t>
   </si>
@@ -353,6 +353,9 @@
     <t>https://www.pathogens.se/dashboards/covid_quantification/</t>
   </si>
   <si>
+    <t>https://www.pathogens.se/</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
@@ -410,12 +413,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>https://www.health.nsw.gov.au/Infectious/covid-19/Pages/reports.aspx</t>
-  </si>
-  <si>
-    <t>New South Wales Government</t>
-  </si>
-  <si>
     <t>https://abwassermonitoring.at/dashboard/</t>
   </si>
   <si>
@@ -455,12 +452,6 @@
     <t>Covid Sewer Monitoring Network</t>
   </si>
   <si>
-    <t>https://coronavirus.saude.mg.gov.br/transparencia/monitoramento-covid-esgotos</t>
-  </si>
-  <si>
-    <t>COVID Sewer Monitoring</t>
-  </si>
-  <si>
     <t>HealthInfoBase</t>
   </si>
   <si>
@@ -720,6 +711,9 @@
   </si>
   <si>
     <t>Swiss Federal Institute of Aquatic Science and Technology Lugano</t>
+  </si>
+  <si>
+    <t>https://covid19.tarimorman.gov.tr/CovidAtikSu/Galeri/ResimGaleriDetay/1542?sayfa=1</t>
   </si>
   <si>
     <t>Turkish Water Institute</t>
@@ -759,7 +753,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -770,6 +764,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -817,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -849,6 +847,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -858,10 +859,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -870,10 +871,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1695,6 +1696,9 @@
       <c r="B28" s="9" t="s">
         <v>111</v>
       </c>
+      <c r="C28" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="H28" s="10"/>
     </row>
@@ -6591,8 +6595,9 @@
     <hyperlink r:id="rId24" ref="B25"/>
     <hyperlink r:id="rId25" ref="B26"/>
     <hyperlink r:id="rId26" ref="B28"/>
+    <hyperlink r:id="rId27" ref="C28"/>
   </hyperlinks>
-  <drawing r:id="rId27"/>
+  <drawing r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -6619,31 +6624,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
@@ -6651,25 +6656,25 @@
         <v>39</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="11" t="s">
         <v>122</v>
       </c>
+      <c r="C2" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="D2" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="12">
+        <v>125</v>
+      </c>
+      <c r="F2" s="13">
         <v>44034.0</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="14">
         <v>44834.0</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I2" s="6">
         <v>5.0</v>
@@ -6680,25 +6685,25 @@
         <v>39</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="14">
+        <v>44494.0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>44854.0</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="13">
-        <v>44494.0</v>
-      </c>
-      <c r="G3" s="13">
-        <v>44854.0</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="I3" s="6">
         <v>32.0</v>
@@ -6709,22 +6714,22 @@
         <v>39</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="11" t="s">
         <v>129</v>
       </c>
+      <c r="C4" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="D4" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="13">
+        <v>125</v>
+      </c>
+      <c r="F4" s="14">
         <v>44743.0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I4" s="6">
         <v>3.0</v>
@@ -6732,88 +6737,94 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="F5" s="14">
+        <v>44577.0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="I5" s="6">
+        <v>48.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="15" t="s">
         <v>134</v>
       </c>
+      <c r="C6" s="12" t="s">
+        <v>135</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="13">
-        <v>44577.0</v>
+        <v>125</v>
+      </c>
+      <c r="F6" s="14">
+        <v>44746.0</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" s="6">
-        <v>48.0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="13">
-        <v>44746.0</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>141</v>
+        <v>125</v>
+      </c>
+      <c r="F8" s="14">
+        <v>45110.0</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="6">
+        <v>30.0</v>
       </c>
     </row>
     <row r="9">
@@ -6821,319 +6832,328 @@
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="13">
-        <v>45110.0</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="6">
-        <v>30.0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>141</v>
+        <v>125</v>
+      </c>
+      <c r="F10" s="14">
+        <v>44130.0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>44622.0</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="6">
+        <v>52.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>145</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="13">
-        <v>44130.0</v>
-      </c>
-      <c r="G11" s="13">
-        <v>44622.0</v>
+        <v>125</v>
+      </c>
+      <c r="F11" s="14">
+        <v>44724.0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I11" s="6">
-        <v>52.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>146</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="F12" s="14">
+        <v>44300.0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>45461.0</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="I12" s="6">
+        <v>65.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>15</v>
+      <c r="B13" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>148</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="13">
-        <v>44724.0</v>
+        <v>125</v>
+      </c>
+      <c r="F13" s="14">
+        <v>45112.0</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="I13" s="6">
-        <v>74.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>149</v>
+      <c r="B14" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="13">
-        <v>44300.0</v>
-      </c>
-      <c r="G14" s="13">
-        <v>45461.0</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="6">
-        <v>65.0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>150</v>
+      <c r="B15" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="13">
-        <v>45112.0</v>
+        <v>125</v>
+      </c>
+      <c r="F15" s="14">
+        <v>44472.0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>45524.0</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I15" s="6">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>153</v>
+      <c r="B16" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>141</v>
+        <v>125</v>
+      </c>
+      <c r="F16" s="14">
+        <v>44330.0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>44998.0</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>155</v>
+      <c r="B17" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="13">
-        <v>44472.0</v>
-      </c>
-      <c r="G17" s="13">
-        <v>45524.0</v>
+        <v>125</v>
+      </c>
+      <c r="F17" s="14">
+        <v>43999.0</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I17" s="6">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>157</v>
+      <c r="B18" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="13">
-        <v>44330.0</v>
-      </c>
-      <c r="G18" s="13">
-        <v>44998.0</v>
+        <v>125</v>
+      </c>
+      <c r="F18" s="14">
+        <v>44562.0</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="I18" s="6">
+        <v>27.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>159</v>
+      <c r="B19" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="13">
-        <v>43999.0</v>
+        <v>125</v>
+      </c>
+      <c r="F19" s="14">
+        <v>45529.0</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I19" s="6">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>161</v>
+        <v>26</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="13">
-        <v>44562.0</v>
+        <v>125</v>
+      </c>
+      <c r="F20" s="14">
+        <v>44357.0</v>
+      </c>
+      <c r="G20" s="14">
+        <v>44824.0</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I20" s="6">
-        <v>27.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>163</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>164</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="13">
-        <v>45529.0</v>
+        <v>125</v>
+      </c>
+      <c r="F21" s="14">
+        <v>45020.0</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I21" s="6">
         <v>5.0</v>
@@ -7141,7 +7161,7 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>165</v>
@@ -7150,380 +7170,380 @@
         <v>166</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="13">
-        <v>44357.0</v>
-      </c>
-      <c r="G22" s="13">
-        <v>44824.0</v>
+        <v>125</v>
+      </c>
+      <c r="F22" s="14">
+        <v>43934.0</v>
+      </c>
+      <c r="G22" s="14">
+        <v>45557.0</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I22" s="6">
-        <v>6.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>167</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="13">
-        <v>45020.0</v>
+        <v>125</v>
+      </c>
+      <c r="F23" s="14">
+        <v>44567.0</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I23" s="6">
-        <v>5.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="13">
-        <v>43934.0</v>
-      </c>
-      <c r="G24" s="13">
-        <v>45557.0</v>
+        <v>125</v>
+      </c>
+      <c r="F24" s="14">
+        <v>44046.0</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I24" s="6">
-        <v>65.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="13">
-        <v>44567.0</v>
+        <v>125</v>
+      </c>
+      <c r="F25" s="14">
+        <v>44032.0</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I25" s="6">
-        <v>29.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>171</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="13">
-        <v>44046.0</v>
+        <v>125</v>
+      </c>
+      <c r="F26" s="14">
+        <v>44837.0</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I26" s="6">
-        <v>39.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F27" s="13">
-        <v>44032.0</v>
+        <v>125</v>
+      </c>
+      <c r="F27" s="14">
+        <v>44872.0</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I27" s="6">
-        <v>54.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>173</v>
+      <c r="B28" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="13">
-        <v>44837.0</v>
+        <v>125</v>
+      </c>
+      <c r="F28" s="14">
+        <v>45397.0</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I28" s="6">
-        <v>70.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>175</v>
+        <v>61</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>176</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="13">
-        <v>44872.0</v>
+        <v>125</v>
+      </c>
+      <c r="F29" s="14">
+        <v>44998.0</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I29" s="6">
-        <v>3.0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="D30" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="13">
-        <v>45397.0</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I30" s="6">
-        <v>21.0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>179</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="13">
-        <v>44998.0</v>
+        <v>125</v>
+      </c>
+      <c r="F31" s="14">
+        <v>44494.0</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="I31" s="6">
+        <v>40.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>141</v>
+        <v>125</v>
+      </c>
+      <c r="F32" s="14">
+        <v>44410.0</v>
+      </c>
+      <c r="G32" s="14">
+        <v>44735.0</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="6">
+        <v>27.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>182</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="13">
-        <v>44494.0</v>
+        <v>125</v>
+      </c>
+      <c r="F33" s="14">
+        <v>44465.0</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I33" s="6">
-        <v>40.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="12" t="s">
         <v>184</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" s="13">
-        <v>44410.0</v>
-      </c>
-      <c r="G34" s="13">
-        <v>44735.0</v>
+        <v>125</v>
+      </c>
+      <c r="F34" s="14">
+        <v>44703.0</v>
+      </c>
+      <c r="G34" s="14">
+        <v>45122.0</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I34" s="6">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F35" s="13">
-        <v>44465.0</v>
+        <v>125</v>
+      </c>
+      <c r="F35" s="14">
+        <v>44000.0</v>
+      </c>
+      <c r="G35" s="14">
+        <v>45450.0</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I35" s="6">
-        <v>29.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>187</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="13">
-        <v>44703.0</v>
-      </c>
-      <c r="G36" s="13">
-        <v>45122.0</v>
+        <v>125</v>
+      </c>
+      <c r="F36" s="14">
+        <v>45383.0</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I36" s="6">
         <v>13.0</v>
@@ -7531,7 +7551,7 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>188</v>
@@ -7540,149 +7560,146 @@
         <v>189</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="13">
-        <v>44000.0</v>
-      </c>
-      <c r="G37" s="13">
-        <v>45450.0</v>
+        <v>125</v>
+      </c>
+      <c r="F37" s="14">
+        <v>45413.0</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="I37" s="6">
-        <v>96.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>190</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" s="13">
-        <v>45383.0</v>
+        <v>125</v>
+      </c>
+      <c r="F38" s="14">
+        <v>45043.0</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="I38" s="6">
-        <v>13.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>192</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" s="13">
-        <v>45413.0</v>
+        <v>125</v>
+      </c>
+      <c r="F39" s="14">
+        <v>44954.0</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="I39" s="6">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>193</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="13">
-        <v>45043.0</v>
+        <v>125</v>
+      </c>
+      <c r="F40" s="14">
+        <v>44879.0</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="I40" s="6">
-        <v>99.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="13">
-        <v>44954.0</v>
+        <v>125</v>
+      </c>
+      <c r="F41" s="14">
+        <v>43920.0</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I41" s="6">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="13">
-        <v>44879.0</v>
+        <v>125</v>
+      </c>
+      <c r="F42" s="14">
+        <v>44844.0</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I42" s="6">
         <v>3.0</v>
@@ -7690,320 +7707,435 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>197</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="13">
+        <v>125</v>
+      </c>
+      <c r="F43" s="14">
         <v>43920.0</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I43" s="6">
-        <v>8.0</v>
+        <v>317.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>198</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E44" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="14">
+        <v>44381.0</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" s="6">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="13">
-        <v>44844.0</v>
-      </c>
-      <c r="H44" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I44" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F45" s="13">
-        <v>43920.0</v>
+      <c r="F45" s="14">
+        <v>44711.0</v>
+      </c>
+      <c r="G45" s="14">
+        <v>45239.0</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I45" s="6">
-        <v>317.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C46" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="D46" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E46" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="14">
+        <v>44627.0</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" s="6">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F46" s="13">
-        <v>44381.0</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" s="6">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>204</v>
+        <v>107</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="F48" s="14">
+        <v>44808.0</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I48" s="6">
+        <v>17.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="6" t="s">
         <v>124</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="14">
+        <v>44815.0</v>
+      </c>
+      <c r="G49" s="14">
+        <v>45634.0</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I49" s="6">
+        <v>16.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>167</v>
+        <v>71</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="F50" s="14">
+        <v>44543.0</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="12" t="s">
         <v>208</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="14">
+        <v>44515.0</v>
+      </c>
+      <c r="G51" s="14">
+        <v>44989.0</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" s="6">
+        <v>73.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>209</v>
       </c>
+      <c r="C52" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="D52" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="F52" s="14">
+        <v>44024.0</v>
+      </c>
+      <c r="G52" s="14">
+        <v>45452.0</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I52" s="6">
+        <v>54.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>211</v>
-      </c>
       <c r="D53" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="14">
+        <v>44150.0</v>
+      </c>
+      <c r="G53" s="14">
+        <v>45465.0</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I53" s="6">
+        <v>54.0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="20" t="s">
         <v>212</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>213</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>213</v>
+      <c r="C55" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="14">
+        <v>44018.0</v>
+      </c>
+      <c r="G55" s="14">
+        <v>45712.0</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I55" s="6">
+        <v>56.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C56" s="6" t="s">
         <v>216</v>
       </c>
+      <c r="C56" s="12" t="s">
+        <v>217</v>
+      </c>
       <c r="D56" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="14">
+        <v>45294.0</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I56" s="6">
+        <v>289.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C57" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="F57" s="14">
+        <v>45166.0</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I57" s="6">
+        <v>19.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="6" t="s">
         <v>220</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>221</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="F59" s="14">
+        <v>44599.0</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" s="6">
+        <v>10.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>222</v>
@@ -8012,211 +8144,279 @@
         <v>223</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" s="14">
+        <v>44531.0</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I60" s="6">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>69</v>
+      <c r="B61" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="F61" s="14">
+        <v>45266.0</v>
+      </c>
+      <c r="G61" s="14">
+        <v>45266.0</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I61" s="6">
+        <v>14.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>225</v>
+      <c r="B62" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="F62" s="14">
+        <v>43892.0</v>
+      </c>
+      <c r="G62" s="14">
+        <v>45474.0</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I62" s="6">
+        <v>6.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>227</v>
+      <c r="B63" s="20" t="s">
+        <v>228</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E63" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="14">
+        <v>43892.0</v>
+      </c>
+      <c r="G63" s="14">
+        <v>45474.0</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I63" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="18" t="s">
-        <v>229</v>
+      <c r="B64" s="20" t="s">
+        <v>230</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E64" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" s="14">
+        <v>43892.0</v>
+      </c>
+      <c r="G64" s="14">
+        <v>45474.0</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I64" s="6">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C65" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>232</v>
       </c>
+      <c r="C65" s="18" t="s">
+        <v>233</v>
+      </c>
       <c r="D65" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E65" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="14">
+        <v>44089.0</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E66" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" s="14">
+        <v>43992.0</v>
+      </c>
+      <c r="G66" s="14">
+        <v>45503.0</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I66" s="6">
+        <v>106.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="6" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>235</v>
+        <v>9</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="F67" s="14">
+        <v>44562.0</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I67" s="6">
+        <v>5.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>237</v>
+        <v>8</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E68" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F68" s="14">
+        <v>44017.0</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I68" s="6">
+        <v>1676.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>9</v>
+      <c r="B69" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70" s="13">
-        <v>44017.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="14">
+        <v>44028.0</v>
+      </c>
+      <c r="H69" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F71" s="13">
-        <v>44028.0</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="I71" s="6">
+      <c r="I69" s="6">
         <v>192.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$V$71">
-    <sortState ref="A1:V71">
-      <sortCondition ref="A1:A71"/>
+  <autoFilter ref="$A$1:$V$69">
+    <sortState ref="A1:V69">
+      <sortCondition ref="A1:A69"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="D2:E71">
+  <conditionalFormatting sqref="D2:E69">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Active">
       <formula>NOT(ISERROR(SEARCH(("Active"),(D2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E71">
+  <conditionalFormatting sqref="D2:E69">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Defunct">
       <formula>NOT(ISERROR(SEARCH(("Defunct"),(D2))))</formula>
     </cfRule>
@@ -8236,9 +8436,9 @@
     <hyperlink r:id="rId12" ref="B13"/>
     <hyperlink r:id="rId13" ref="B14"/>
     <hyperlink r:id="rId14" ref="B15"/>
-    <hyperlink r:id="rId15" ref="B16"/>
+    <hyperlink r:id="rId15" location="Dashboard" ref="B16"/>
     <hyperlink r:id="rId16" ref="B17"/>
-    <hyperlink r:id="rId17" location="Dashboard" ref="B18"/>
+    <hyperlink r:id="rId17" ref="B18"/>
     <hyperlink r:id="rId18" ref="B19"/>
     <hyperlink r:id="rId19" ref="B20"/>
     <hyperlink r:id="rId20" ref="B21"/>
@@ -8247,18 +8447,18 @@
     <hyperlink r:id="rId23" ref="B24"/>
     <hyperlink r:id="rId24" ref="B25"/>
     <hyperlink r:id="rId25" ref="B26"/>
-    <hyperlink r:id="rId26" ref="B27"/>
+    <hyperlink r:id="rId26" location="abwasser" ref="B27"/>
     <hyperlink r:id="rId27" ref="B28"/>
-    <hyperlink r:id="rId28" location="abwasser" ref="B29"/>
+    <hyperlink r:id="rId28" ref="B29"/>
     <hyperlink r:id="rId29" ref="B30"/>
     <hyperlink r:id="rId30" ref="B31"/>
     <hyperlink r:id="rId31" ref="B32"/>
     <hyperlink r:id="rId32" ref="B33"/>
     <hyperlink r:id="rId33" ref="B34"/>
     <hyperlink r:id="rId34" ref="B35"/>
-    <hyperlink r:id="rId35" ref="B36"/>
+    <hyperlink r:id="rId35" location="links" ref="B36"/>
     <hyperlink r:id="rId36" ref="B37"/>
-    <hyperlink r:id="rId37" location="links" ref="B38"/>
+    <hyperlink r:id="rId37" ref="B38"/>
     <hyperlink r:id="rId38" ref="B39"/>
     <hyperlink r:id="rId39" ref="B40"/>
     <hyperlink r:id="rId40" ref="B41"/>
@@ -8266,9 +8466,9 @@
     <hyperlink r:id="rId42" ref="B43"/>
     <hyperlink r:id="rId43" ref="B44"/>
     <hyperlink r:id="rId44" ref="B45"/>
-    <hyperlink r:id="rId45" ref="B46"/>
+    <hyperlink r:id="rId45" location="S.embed_link-K.C-B.1-L.4.zw" ref="B46"/>
     <hyperlink r:id="rId46" ref="B47"/>
-    <hyperlink r:id="rId47" location="S.embed_link-K.C-B.1-L.4.zw" ref="B48"/>
+    <hyperlink r:id="rId47" ref="B48"/>
     <hyperlink r:id="rId48" ref="B49"/>
     <hyperlink r:id="rId49" ref="B50"/>
     <hyperlink r:id="rId50" ref="B51"/>
@@ -8290,10 +8490,8 @@
     <hyperlink r:id="rId66" ref="B67"/>
     <hyperlink r:id="rId67" ref="B68"/>
     <hyperlink r:id="rId68" ref="B69"/>
-    <hyperlink r:id="rId69" ref="B70"/>
-    <hyperlink r:id="rId70" ref="B71"/>
   </hyperlinks>
-  <drawing r:id="rId71"/>
+  <drawing r:id="rId69"/>
 </worksheet>
 </file>
 
